--- a/7/МПС/1.xlsx
+++ b/7/МПС/1.xlsx
@@ -19,30 +19,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Число устройств N</t>
   </si>
   <si>
-    <t>интенсивность потока за час</t>
-  </si>
-  <si>
     <t>время обслуживание</t>
   </si>
   <si>
     <t>k</t>
+  </si>
+  <si>
+    <t>ч/м</t>
+  </si>
+  <si>
+    <t>минут</t>
+  </si>
+  <si>
+    <t>Интенсивность обслуживания</t>
+  </si>
+  <si>
+    <t>клиент за минуту</t>
+  </si>
+  <si>
+    <t>k!</t>
+  </si>
+  <si>
+    <t>ψ^k</t>
+  </si>
+  <si>
+    <t>n-k</t>
+  </si>
+  <si>
+    <t>ψ^k/k!</t>
+  </si>
+  <si>
+    <t>(n-k)/k!*ψ^k</t>
+  </si>
+  <si>
+    <t>ИТОГ</t>
+  </si>
+  <si>
+    <t>Р0</t>
+  </si>
+  <si>
+    <t>РЗ</t>
+  </si>
+  <si>
+    <t>N0</t>
+  </si>
+  <si>
+    <t>Kn</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>Кз</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>t ож ср</t>
+  </si>
+  <si>
+    <t>Интенсивность входного потока  λ</t>
+  </si>
+  <si>
+    <r>
+      <t>интенсивность потока за час t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
+    <t>Интенсивность загрузки ψ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -54,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,13 +143,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -84,49 +210,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>389518</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>46925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4962525" y="352425"/>
-          <a:ext cx="8057143" cy="5600000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,50 +475,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B7"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17" style="11" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <f>60/90</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3">
+        <v>90</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2">
+        <f>1/B3</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <f>1/B4</f>
+        <v>1.8867924528301886E-2</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2">
+        <f>B6*B4</f>
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4">
+        <f>B$8^A12</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <f>FACT(A12)</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <f>B12/C12</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <f>1-A12</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <f>E12/C12*B12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B$8^A13</f>
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="C13" s="4">
+        <f>FACT(A13)</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <f>B13/C13</f>
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="E13" s="4">
+        <f>1-A13</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <f>E13/C13*B13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" ref="B14:F14" si="0">SUM(B12:B13)</f>
+        <v>1.588888888888889</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
+        <f>SUM(D12:D13)</f>
+        <v>1.588888888888889</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f>(B7^B2)/(1-B7/B2)+F14</f>
+        <v>1.0192307692307692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f>B6^B2*B15/(1-B6/B2)*FACT(B2)</f>
+        <v>1.1452031114952462E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f>B15*F14</f>
+        <v>1.0192307692307692</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f>B17/1</f>
+        <v>1.0192307692307692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <f>1-B17</f>
+        <v>-1.9230769230769162E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f>B19/1</f>
+        <v>-1.9230769230769162E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <f>B6*B16/(1-B6/B2)^2*B2</f>
+        <v>1.3012028788609035E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <f>B21*B4</f>
+        <v>6.8963752579627889E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/7/МПС/1.xlsx
+++ b/7/МПС/1.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1устройство" sheetId="3" r:id="rId1"/>
+    <sheet name="несколько устройств" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <r>
       <t>t</t>
@@ -206,12 +207,67 @@
       <t>Среднее время ожидания требований:</t>
     </r>
   </si>
+  <si>
+    <t>чел. в час</t>
+  </si>
+  <si>
+    <t>интенсивность входнго потока</t>
+  </si>
+  <si>
+    <t>интенсивность  обслуживания</t>
+  </si>
+  <si>
+    <t>интенсивность  загрузки</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ^k</t>
+  </si>
+  <si>
+    <t>k!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ^k/k!</t>
+  </si>
+  <si>
+    <t>n-k</t>
+  </si>
+  <si>
+    <t>(n-k)/k!*      ^k</t>
+  </si>
+  <si>
+    <t>Итог</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+  </si>
+  <si>
+    <t>надо родит</t>
+  </si>
+  <si>
+    <t>1/(T37+(T34^(T35+1))/(ФАКТР(T35)*(T35-T34)))</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +343,21 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -323,16 +394,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -345,24 +413,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1230,6 +1304,396 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Рисунок 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1104900" y="2914650"/>
+          <a:ext cx="123825" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Рисунок 85"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1104900" y="2914650"/>
+          <a:ext cx="123825" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Рисунок 86"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4143375" y="2924175"/>
+          <a:ext cx="123825" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101047</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>65027</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>22566</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Рисунок 101"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10863884" y="5716656"/>
+          <a:ext cx="3265013" cy="1685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>437790</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>56986</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="Рисунок 102"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7465115" y="8027504"/>
+          <a:ext cx="2886958" cy="1314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1285061</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>180400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Рисунок 103"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5324475" y="9620250"/>
+          <a:ext cx="6514286" cy="4600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1056470</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>133192</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="Рисунок 104"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5172075" y="14430375"/>
+          <a:ext cx="6438095" cy="1266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>599715</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="Рисунок 105"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11134725" y="4686300"/>
+          <a:ext cx="2876190" cy="828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -1495,8 +1959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,85 +1971,85 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>90</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>53</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -1596,31 +2060,31 @@
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
     </row>
     <row r="8" spans="1:16" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B8">
         <f>1/B4</f>
         <v>1.8867924528301886E-2</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9">
@@ -1628,14 +2092,14 @@
         <v>0.58888888888888891</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
     </row>
     <row r="10" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -1646,14 +2110,14 @@
         <v>0.41111111111111109</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11">
@@ -1661,14 +2125,14 @@
         <v>0.24209876543209877</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12">
@@ -1676,14 +2140,14 @@
         <v>1.4324324324324325</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13">
@@ -1714,4 +2178,510 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:W40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="16" max="16" width="31.140625" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5">
+        <v>36</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+    </row>
+    <row r="4" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J5" s="7"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="1">
+        <f>36/60</f>
+        <v>0.6</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="16">
+        <f>1/B4</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="1">
+        <f>E6/E7</f>
+        <v>10.8</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J9" s="2"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="1"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="1"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <f>$E$8^A14</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <f>FACT(A14)</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <f>B14/C14</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <f>$B$2-A14</f>
+        <v>9</v>
+      </c>
+      <c r="F14" s="1">
+        <f>E14/C14*B14</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" ref="B15:B22" si="0">$E$8^A15</f>
+        <v>10.8</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" ref="C15:C21" si="1">FACT(A15)</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <f>B15/C15</f>
+        <v>10.8</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" ref="E15:E22" si="2">$B$2-A15</f>
+        <v>8</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" ref="F15:F22" si="3">E15/C15*B15</f>
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>116.64000000000001</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" ref="D16:D22" si="4">B16/C16</f>
+        <v>58.320000000000007</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="3"/>
+        <v>408.24000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>1259.7120000000002</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="4"/>
+        <v>209.95200000000003</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="3"/>
+        <v>1259.7120000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1">
+        <f>$E$8^A18</f>
+        <v>13604.889600000004</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="4"/>
+        <v>566.87040000000013</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="3"/>
+        <v>2834.3520000000008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>146932.80768000006</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="4"/>
+        <v>1224.4400640000006</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="3"/>
+        <v>4897.7602560000014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1">
+        <f>$E$8^A20</f>
+        <v>1586874.3229440006</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="4"/>
+        <v>2203.9921152000006</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="3"/>
+        <v>6611.9763456000028</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>17138242.687795207</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="1"/>
+        <v>5040</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="4"/>
+        <v>3400.4449777371442</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="3"/>
+        <v>6800.8899554742884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>185093021.02818826</v>
+      </c>
+      <c r="C22" s="1">
+        <f>FACT(A22)</f>
+        <v>40320</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="4"/>
+        <v>4590.6007199451451</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <f>E22/C22*B22</f>
+        <v>4590.6007199451451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <f>SUM(D14:D22)</f>
+        <v>12266.420276882291</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1">
+        <f>SUM(F14:F22)</f>
+        <v>27498.931277019441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <f>1/(D23+(E8^(B2+1))/(FACT(B2)*(B2-E8)))</f>
+        <v>-4.8109524434347419E-5</v>
+      </c>
+      <c r="J27" s="15"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f>1/(T37+(T34^(T35+1))/(FACT(T35)*(T35-T34)))</f>
+        <v>3.2105815698938193E-3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T34">
+        <v>4.6666670000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T37">
+        <v>53.255139999999997</v>
+      </c>
+      <c r="W37">
+        <f>F30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T40">
+        <v>3.0309999999999998E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="K8:P8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/7/МПС/1.xlsx
+++ b/7/МПС/1.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1устройство" sheetId="3" r:id="rId1"/>
     <sheet name="несколько устройств" sheetId="4" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <r>
       <t>t</t>
@@ -241,26 +242,25 @@
     <t>Итог</t>
   </si>
   <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o</t>
-    </r>
-  </si>
-  <si>
-    <t>надо родит</t>
-  </si>
-  <si>
-    <t>1/(T37+(T34^(T35+1))/(ФАКТР(T35)*(T35-T34)))</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>з/в день</t>
+  </si>
+  <si>
+    <t>интенсивность входного потока</t>
+  </si>
+  <si>
+    <t>tP</t>
+  </si>
+  <si>
+    <t>tобс</t>
+  </si>
+  <si>
+    <t>ч</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -344,15 +344,14 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -394,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -420,6 +419,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -434,9 +445,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1501,188 +1518,41 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>101047</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>65027</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>22566</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>351577</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>189652</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="102" name="Рисунок 101"/>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10863884" y="5716656"/>
-          <a:ext cx="3265013" cy="1685714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>437790</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>56986</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="Рисунок 102"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7465115" y="8027504"/>
-          <a:ext cx="2886958" cy="1314286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1285061</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>180400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="Рисунок 103"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5324475" y="9620250"/>
-          <a:ext cx="6514286" cy="4600000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1056470</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>133192</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="105" name="Рисунок 104"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5172075" y="14430375"/>
-          <a:ext cx="6438095" cy="1266667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>599715</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95146</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="106" name="Рисунок 105"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11134725" y="4686300"/>
-          <a:ext cx="2876190" cy="828571"/>
+          <a:off x="4772025" y="1200150"/>
+          <a:ext cx="6780952" cy="6780952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1960,7 +1830,7 @@
   <dimension ref="A2:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1994,14 +1864,14 @@
       <c r="J3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
     </row>
     <row r="4" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
@@ -2016,40 +1886,40 @@
       <c r="J4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.35">
       <c r="J5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
     </row>
     <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
     </row>
     <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -2060,14 +1930,14 @@
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
     </row>
     <row r="8" spans="1:16" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B8">
@@ -2077,14 +1947,14 @@
       <c r="J8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
     </row>
     <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9">
@@ -2092,14 +1962,14 @@
         <v>0.58888888888888891</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
     </row>
     <row r="10" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -2110,14 +1980,14 @@
         <v>0.41111111111111109</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11">
@@ -2125,14 +1995,14 @@
         <v>0.24209876543209877</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12">
@@ -2140,14 +2010,14 @@
         <v>1.4324324324324325</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13">
@@ -2182,10 +2052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:W40"/>
+  <dimension ref="A2:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2222,12 +2092,12 @@
         <v>19</v>
       </c>
       <c r="J3" s="7"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
     </row>
     <row r="4" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
@@ -2240,115 +2110,115 @@
         <v>5</v>
       </c>
       <c r="J4" s="8"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J5" s="7"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
     </row>
     <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="1">
         <f>36/60</f>
         <v>0.6</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
     </row>
     <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="16">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="12">
         <f>1/B4</f>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
     </row>
     <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="1">
         <f>E6/E7</f>
         <v>10.8</v>
       </c>
       <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
     </row>
     <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J9" s="2"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
     </row>
     <row r="10" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J11" s="1"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J12" s="1"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2416,7 +2286,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" ref="F15:F22" si="3">E15/C15*B15</f>
+        <f t="shared" ref="F15:F21" si="3">E15/C15*B15</f>
         <v>86.4</v>
       </c>
     </row>
@@ -2612,60 +2482,16 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27">
-        <f>1/(D23+(E8^(B2+1))/(FACT(B2)*(B2-E8)))</f>
-        <v>-4.8109524434347419E-5</v>
-      </c>
-      <c r="J27" s="15"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F31">
-        <f>1/(T37+(T34^(T35+1))/(FACT(T35)*(T35-T34)))</f>
-        <v>3.2105815698938193E-3</v>
-      </c>
-      <c r="G31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T34">
-        <v>4.6666670000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T37">
-        <v>53.255139999999997</v>
-      </c>
-      <c r="W37">
-        <f>F30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T40">
-        <v>3.0309999999999998E-3</v>
-      </c>
+      <c r="A27" s="13"/>
+      <c r="J27" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="K7:P7"/>
     <mergeCell ref="K9:P9"/>
     <mergeCell ref="K10:P10"/>
     <mergeCell ref="K11:P11"/>
@@ -2673,15 +2499,143 @@
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="K5:P5"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="K7:P7"/>
     <mergeCell ref="K8:P8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A6:T22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <f>B7/60</f>
+        <v>0.15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:19" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5">
+        <v>72</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <f>72/8</f>
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="1">
+        <f>B8/8</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R16" t="s">
+        <v>36</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f>72/8</f>
+        <v>9</v>
+      </c>
+      <c r="R17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17">
+        <v>0.5</v>
+      </c>
+      <c r="T17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="R18" t="s">
+        <v>34</v>
+      </c>
+      <c r="S18">
+        <v>1.5</v>
+      </c>
+      <c r="T18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="S22">
+        <f>1/1.5/0.5</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A13:D13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/7/МПС/1.xlsx
+++ b/7/МПС/1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <r>
       <t>t</t>
@@ -241,33 +241,12 @@
   <si>
     <t>Итог</t>
   </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>з/в день</t>
-  </si>
-  <si>
-    <t>интенсивность входного потока</t>
-  </si>
-  <si>
-    <t>tP</t>
-  </si>
-  <si>
-    <t>tобс</t>
-  </si>
-  <si>
-    <t>ч</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,13 +329,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -393,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -418,17 +390,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -444,15 +413,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1523,40 +1483,197 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>351577</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>189652</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="6" name="Рисунок 5"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4772025" y="1200150"/>
-          <a:ext cx="6780952" cy="6780952"/>
+          <a:off x="1104900" y="2914650"/>
+          <a:ext cx="123825" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2590800" y="2914650"/>
+          <a:ext cx="123825" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4695825" y="2924175"/>
+          <a:ext cx="123825" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1864,14 +1981,14 @@
       <c r="J3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
     </row>
     <row r="4" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
@@ -1886,40 +2003,40 @@
       <c r="J4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.35">
       <c r="J5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
     </row>
     <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
     </row>
     <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -1930,14 +2047,14 @@
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
     </row>
     <row r="8" spans="1:16" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B8">
@@ -1947,14 +2064,14 @@
       <c r="J8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
     </row>
     <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9">
@@ -1962,14 +2079,14 @@
         <v>0.58888888888888891</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
     </row>
     <row r="10" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -1980,14 +2097,14 @@
         <v>0.41111111111111109</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11">
@@ -1995,14 +2112,14 @@
         <v>0.24209876543209877</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12">
@@ -2010,14 +2127,14 @@
         <v>1.4324324324324325</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13">
@@ -2055,7 +2172,7 @@
   <dimension ref="A2:P27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,12 +2209,12 @@
         <v>19</v>
       </c>
       <c r="J3" s="7"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
     </row>
     <row r="4" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
@@ -2110,115 +2227,115 @@
         <v>5</v>
       </c>
       <c r="J4" s="8"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J5" s="7"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
     </row>
     <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="1">
         <f>36/60</f>
         <v>0.6</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
     </row>
     <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="12">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="11">
         <f>1/B4</f>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
     </row>
     <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="1">
         <f>E6/E7</f>
         <v>10.8</v>
       </c>
       <c r="J8" s="9"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
     </row>
     <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J9" s="2"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
     </row>
     <row r="10" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J11" s="1"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J12" s="1"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2482,16 +2599,11 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="J27" s="11"/>
+      <c r="A27" s="12"/>
+      <c r="J27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="K5:P5"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="K7:P7"/>
     <mergeCell ref="K9:P9"/>
     <mergeCell ref="K10:P10"/>
     <mergeCell ref="K11:P11"/>
@@ -2500,6 +2612,11 @@
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="K8:P8"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="K7:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2509,130 +2626,454 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:T22"/>
+  <dimension ref="A2:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="16" max="16" width="31.140625" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B2" s="14">
+        <v>9</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+    </row>
+    <row r="3" spans="1:16" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14">
+        <v>36</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+    </row>
+    <row r="4" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B4" s="14">
+        <v>18</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J5" s="7"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+    </row>
+    <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="1">
+        <f>36/60</f>
+        <v>0.6</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+    </row>
+    <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="11">
+        <f>1/B4</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+    </row>
+    <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="1">
+        <f>E6/E7</f>
+        <v>10.8</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+    </row>
+    <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J9" s="2"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+    </row>
+    <row r="10" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="1"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="1"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <f>$E$8^A14</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <f>FACT(A14)</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <f>B14/C14</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <f>$B$2-A14</f>
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="F14" s="1">
+        <f>E14/C14*B14</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" ref="B15:B22" si="0">$E$8^A15</f>
+        <v>10.8</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" ref="C15:C21" si="1">FACT(A15)</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <f>B15/C15</f>
+        <v>10.8</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" ref="E15:E22" si="2">$B$2-A15</f>
+        <v>8</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" ref="F15:F21" si="3">E15/C15*B15</f>
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>116.64000000000001</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" ref="D16:D22" si="4">B16/C16</f>
+        <v>58.320000000000007</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="3"/>
+        <v>408.24000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>1259.7120000000002</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="4"/>
+        <v>209.95200000000003</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="3"/>
+        <v>1259.7120000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1">
+        <f>$E$8^A18</f>
+        <v>13604.889600000004</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="4"/>
+        <v>566.87040000000013</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="D7">
-        <f>B7/60</f>
-        <v>0.15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:19" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5">
-        <v>72</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8">
-        <f>72/8</f>
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="1">
-        <f>B8/8</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R16" t="s">
-        <v>36</v>
-      </c>
-      <c r="S16">
+      <c r="F18" s="1">
+        <f t="shared" si="3"/>
+        <v>2834.3520000000008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>146932.80768000006</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="4"/>
+        <v>1224.4400640000006</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="3"/>
+        <v>4897.7602560000014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1">
+        <f>$E$8^A20</f>
+        <v>1586874.3229440006</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="4"/>
+        <v>2203.9921152000006</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="3"/>
+        <v>6611.9763456000028</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>17138242.687795207</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="1"/>
+        <v>5040</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="4"/>
+        <v>3400.4449777371442</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="3"/>
+        <v>6800.8899554742884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>185093021.02818826</v>
+      </c>
+      <c r="C22" s="1">
+        <f>FACT(A22)</f>
+        <v>40320</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="4"/>
+        <v>4590.6007199451451</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F17">
-        <f>72/8</f>
-        <v>9</v>
-      </c>
-      <c r="R17" t="s">
-        <v>33</v>
-      </c>
-      <c r="S17">
-        <v>0.5</v>
-      </c>
-      <c r="T17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="R18" t="s">
-        <v>34</v>
-      </c>
-      <c r="S18">
-        <v>1.5</v>
-      </c>
-      <c r="T18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="S22">
-        <f>1/1.5/0.5</f>
-        <v>1.3333333333333333</v>
-      </c>
+      <c r="F22" s="1">
+        <f>E22/C22*B22</f>
+        <v>4590.6007199451451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <f>SUM(D14:D22)</f>
+        <v>12266.420276882291</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1">
+        <f>SUM(F14:F22)</f>
+        <v>27498.931277019441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="J27" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A13:D13"/>
+  <mergeCells count="13">
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
